--- a/CashFlow/RMD_cashflow.xlsx
+++ b/CashFlow/RMD_cashflow.xlsx
@@ -74,10 +74,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="14.3"/>
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1355819000.0</v>
+        <v>-95710000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1729000000.0</v>
+        <v>-75799000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1632000000.0</v>
+        <v>-108073000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1139796000.0</v>
+        <v>-69881000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>693610000.0</v>
+        <v>-51750000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>310178000.0</v>
+        <v>-81912000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-82731000.0</v>
@@ -4050,10 +4050,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>40829000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>42499000.0</v>
